--- a/uploads/MCA_2_B.xlsx
+++ b/uploads/MCA_2_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A207E52-6BA8-4BD2-9261-63F4A899B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848A06A-6965-4B65-BDB7-95E02E4497E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>RegNo</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Abishni S</t>
+  </si>
+  <si>
+    <t>Ajay Kumar S</t>
+  </si>
+  <si>
+    <t>Akash S</t>
+  </si>
+  <si>
+    <t>Akkshaya G</t>
+  </si>
+  <si>
+    <t>Amirdhavarshini N</t>
+  </si>
+  <si>
+    <t>Anees Fathima A</t>
+  </si>
+  <si>
+    <t>Balaprasanna M</t>
+  </si>
+  <si>
+    <t>Britny Spears Y</t>
+  </si>
+  <si>
+    <t>Chandramohan C</t>
+  </si>
+  <si>
+    <t>Deepika R</t>
+  </si>
+  <si>
+    <t>Dhanishga Kalai</t>
+  </si>
+  <si>
+    <t>Dharshini M</t>
+  </si>
+  <si>
+    <t>Dhivya P</t>
+  </si>
+  <si>
+    <t>Divya Rupa P</t>
+  </si>
+  <si>
+    <t>Harikrishnan M</t>
+  </si>
+  <si>
+    <t>Harini G N</t>
+  </si>
+  <si>
+    <t>Harini M</t>
+  </si>
+  <si>
+    <t>Harshini R</t>
+  </si>
+  <si>
+    <t>Hemapriya S</t>
+  </si>
+  <si>
+    <t>Indhumathi R</t>
+  </si>
+  <si>
+    <t>Jaipriya S</t>
+  </si>
+  <si>
+    <t>Jayakkodi  T</t>
+  </si>
+  <si>
+    <t>Justin Raj S</t>
+  </si>
+  <si>
+    <t>Sri Saru Priya K</t>
+  </si>
+  <si>
+    <t>Kalaiyarasi M</t>
+  </si>
+  <si>
+    <t>Kamalishree S</t>
+  </si>
+  <si>
+    <t>Kishore R</t>
+  </si>
+  <si>
+    <t>Logesh S</t>
+  </si>
+  <si>
+    <t>Gayathri M</t>
+  </si>
+  <si>
+    <t>Syed Samsul Pary M</t>
+  </si>
+  <si>
+    <t>Madhan U</t>
+  </si>
+  <si>
+    <t>Mahesh Kirubanidhi S</t>
+  </si>
+  <si>
+    <t>Mathan Sri M</t>
+  </si>
+  <si>
+    <t>Nandhan J</t>
+  </si>
+  <si>
+    <t>Nikhil Kumar Mishra</t>
+  </si>
+  <si>
+    <t>Vignesh P</t>
+  </si>
+  <si>
+    <t>Paripoorana G</t>
+  </si>
+  <si>
+    <t>Pragadeesh S</t>
+  </si>
+  <si>
+    <t>Preethika N</t>
+  </si>
+  <si>
+    <t>Priyadharshini S</t>
   </si>
   <si>
     <t>Swetha R</t>
@@ -121,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,6 +256,32 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -193,13 +339,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +567,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -441,162 +589,482 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>126176080</v>
+        <v>126176002</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>126176082</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4">
+        <v>126176004</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>126176084</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4">
+        <v>126176006</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>126176086</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4">
+        <v>126176008</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>126176088</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4">
+        <v>126176010</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>126176089</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4">
+        <v>126176011</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>126176090</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4">
+        <v>126176014</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>126176091</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4">
+        <v>126176016</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>126176093</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4">
+        <v>126176018</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>126176095</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4">
+        <v>126176020</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>126176097</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4">
+        <v>126176022</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>126176099</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4">
+        <v>126176024</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>126176101</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4">
+        <v>126176026</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>126176103</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4">
+        <v>126176028</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>126176105</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4">
+        <v>126176031</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>126176106</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4">
+        <v>126176033</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>126176113</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>126176035</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>126176116</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4">
+        <v>126176037</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>126176118</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4">
+        <v>126176039</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>126176119</v>
+        <v>126176041</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>126176043</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>126176045</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>126176047</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>126176049</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>126176051</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>126176053</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>126176056</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>126176058</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>126176059</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>126176060</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>126176062</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>126176064</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>126176066</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>126176068</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>126176070</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>126176072</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>126176073</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>126176075</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>126176077</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>126176079</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>126176080</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>126176082</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>126176084</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>126176086</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>126176088</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>126176089</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>126176090</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>126176091</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>126176093</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>126176095</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>126176097</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>126176099</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>126176101</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>126176103</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>126176105</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>126176106</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>126176113</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>126176116</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>126176118</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>126176119</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/MCA_2_B.xlsx
+++ b/uploads/MCA_2_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Audi Attendance\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848A06A-6965-4B65-BDB7-95E02E4497E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E610CC86-C5F6-4D26-8ED8-D20EDA49AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Chandramohan C</t>
   </si>
   <si>
-    <t>Deepika R</t>
-  </si>
-  <si>
     <t>Dhanishga Kalai</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Pragadeeshwaran M</t>
+  </si>
+  <si>
+    <t>Devadharshini T</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>126176002</v>
       </c>
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>126176004</v>
       </c>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>126176006</v>
       </c>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>126176008</v>
       </c>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>126176010</v>
       </c>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>126176011</v>
       </c>
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>126176014</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>126176016</v>
       </c>
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>126176018</v>
       </c>
@@ -659,412 +659,412 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>126176020</v>
+        <v>126176021</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>126176022</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>126176024</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>126176026</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>126176028</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>126176031</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>126176033</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>126176035</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>126176037</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>126176039</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>126176041</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>126176043</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>126176045</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>126176047</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>126176049</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>126176051</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>126176053</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>126176056</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>126176058</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>126176059</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>126176060</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>126176062</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>126176064</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>126176066</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>126176068</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>126176070</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>126176072</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>126176073</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>126176075</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>126176077</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>126176079</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>126176080</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>126176082</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>126176084</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>126176086</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>126176088</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>126176089</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>126176090</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>126176091</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>126176093</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>126176095</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>126176097</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>126176099</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>126176101</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>126176103</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>126176105</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>126176106</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>126176113</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>126176116</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>126176118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>126176119</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
